--- a/Mapa Interativo/Long e Alt - Cidades/arquivtest.xlsx
+++ b/Mapa Interativo/Long e Alt - Cidades/arquivtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Gomes\Documents\Programação\Meus-Projetos\Mapa Interativo\Long e Alt - Cidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD6A4BA-1672-41C7-8AAE-6909AC0A7952}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1DF266-9548-4751-A72C-15228C274D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3894FEEB-40B9-4C6B-95D1-EC5A08ED3878}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="31">
   <si>
     <t>UF</t>
   </si>
@@ -36,18 +36,9 @@
     <t>LOCALIDADE</t>
   </si>
   <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
@@ -60,12 +51,6 @@
     <t>SP</t>
   </si>
   <si>
-    <t>Taperoá</t>
-  </si>
-  <si>
-    <t>Teixeira de Freitas</t>
-  </si>
-  <si>
     <t>Vila Velha</t>
   </si>
   <si>
@@ -78,12 +63,6 @@
     <t>Uberaba</t>
   </si>
   <si>
-    <t>Simonésia</t>
-  </si>
-  <si>
-    <t>Sirinhaem</t>
-  </si>
-  <si>
     <t>Teresina</t>
   </si>
   <si>
@@ -96,43 +75,52 @@
     <t>Valinhos</t>
   </si>
   <si>
-    <t>Sumaré</t>
-  </si>
-  <si>
-    <t>Taubaté</t>
-  </si>
-  <si>
     <t>Vinhedo</t>
   </si>
   <si>
-    <t>Taboão da Serra</t>
-  </si>
-  <si>
     <t>ES</t>
   </si>
   <si>
-    <t>Sinop MATO GROSSO</t>
-  </si>
-  <si>
-    <t>Socorro - SP</t>
-  </si>
-  <si>
     <t>Torres RIO GRANDE DO SUL</t>
   </si>
   <si>
-    <t>Vitória - ESPIRITO SANTO</t>
-  </si>
-  <si>
-    <t>QUANTIDADE</t>
-  </si>
-  <si>
     <t>UF2</t>
   </si>
   <si>
-    <t>LATITUDE</t>
-  </si>
-  <si>
-    <t>LONGITUDE</t>
+    <t>Teresina-PI</t>
+  </si>
+  <si>
+    <t>Torres RIO GRANDE DO SUL-RS</t>
+  </si>
+  <si>
+    <t>Uberaba-MG</t>
+  </si>
+  <si>
+    <t>Uberlândia-MG</t>
+  </si>
+  <si>
+    <t>Valinhos-SP</t>
+  </si>
+  <si>
+    <t>Varginha-MG</t>
+  </si>
+  <si>
+    <t>Viamão-RS</t>
+  </si>
+  <si>
+    <t>Vila Velha-ES</t>
+  </si>
+  <si>
+    <t>Vinhedo-SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitória </t>
+  </si>
+  <si>
+    <t>Vitória - ESPIRITO SANTO-ES</t>
+  </si>
+  <si>
+    <t>Volta Redonda-RJ</t>
   </si>
 </sst>
 </file>
@@ -536,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3D4AD9-8424-437C-83C5-D4E6006B5385}">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F21"/>
+      <selection activeCell="A2" sqref="A2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,12 +535,9 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,409 +545,296 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C21" si="0">A2&amp;"-"&amp;B2</f>
-        <v>Simonésia-MG</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>Sinop MATO GROSSO-MT</v>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sirinhaem-PE</v>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Socorro - SP-SP</v>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Sumaré-SP</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Taboão da Serra-SP</v>
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>Taperoá-BA</v>
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>Taubaté-SP</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Teixeira de Freitas-BA</v>
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>Teresina-PI</v>
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>Torres RIO GRANDE DO SUL-RS</v>
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>Uberaba-MG</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>Uberlândia-MG</v>
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>Valinhos-SP</v>
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>Varginha-MG</v>
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>Viamão-RS</v>
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>Vila Velha-ES</v>
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>Vinhedo-SP</v>
-      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>Vitória - ESPIRITO SANTO-ES</v>
-      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>Volta Redonda-RJ</v>
-      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1114,473 +986,299 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
